--- a/po_analysis_by_asin/B0BXMP9QVF_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMP9QVF_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,185 +452,401 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45369</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45397</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>412</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45411</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45418</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>356</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45446</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45453</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>156</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45460</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45467</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>228</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45474</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>300</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45502</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>300</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>148</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45558</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45593</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B24" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B51" t="n">
         <v>428</v>
       </c>
     </row>
@@ -645,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,73 +883,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>414</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>588</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>464</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>568</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>512</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>448</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>548</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BXMP9QVF_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMP9QVF_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,297 +556,249 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>176</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>22</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>146</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>100</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>412</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>76</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>64</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>356</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>156</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>228</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45494.99999999999</v>
-      </c>
-      <c r="B46" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45508.99999999999</v>
-      </c>
-      <c r="B47" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45529.99999999999</v>
-      </c>
-      <c r="B48" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45564.99999999999</v>
-      </c>
-      <c r="B49" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45578.99999999999</v>
-      </c>
-      <c r="B50" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B51" t="n">
         <v>428</v>
       </c>
     </row>
@@ -861,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,7 +870,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>350</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -971,65 +923,57 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>414</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>588</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>464</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>568</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>512</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>448</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45565.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45596.99999999999</v>
-      </c>
-      <c r="B20" t="n">
         <v>548</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BXMP9QVF_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMP9QVF_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -829,7 +830,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -975,6 +976,775 @@
       </c>
       <c r="B19" t="n">
         <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-95.07802081835737</v>
+      </c>
+      <c r="D2" t="n">
+        <v>117.0947587444436</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-88.98047780663504</v>
+      </c>
+      <c r="D3" t="n">
+        <v>127.6315255694921</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-87.82409017190683</v>
+      </c>
+      <c r="D4" t="n">
+        <v>123.5826715889963</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-82.03612493993751</v>
+      </c>
+      <c r="D5" t="n">
+        <v>134.3960670876401</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-86.98296034735179</v>
+      </c>
+      <c r="D6" t="n">
+        <v>131.3244269105252</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-81.55090875442615</v>
+      </c>
+      <c r="D7" t="n">
+        <v>140.7426962846044</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-82.3836736894545</v>
+      </c>
+      <c r="D8" t="n">
+        <v>138.9917278749052</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-82.38464143826278</v>
+      </c>
+      <c r="D9" t="n">
+        <v>149.1768874825638</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-69.47505518077104</v>
+      </c>
+      <c r="D10" t="n">
+        <v>141.0319952274764</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>38</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-69.828265503148</v>
+      </c>
+      <c r="D11" t="n">
+        <v>150.7593137841582</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-60.59016919574522</v>
+      </c>
+      <c r="D12" t="n">
+        <v>153.6536499041881</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-66.17203152836754</v>
+      </c>
+      <c r="D13" t="n">
+        <v>151.0165414220361</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-62.78750726200983</v>
+      </c>
+      <c r="D14" t="n">
+        <v>153.1684991736801</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-55.89125501618859</v>
+      </c>
+      <c r="D15" t="n">
+        <v>159.6156917399529</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-56.39752921077044</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.3927578933361</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-55.88866293513821</v>
+      </c>
+      <c r="D17" t="n">
+        <v>168.9217736197962</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>62</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-46.5053803502475</v>
+      </c>
+      <c r="D18" t="n">
+        <v>180.0712557157354</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>76</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-30.41380688615384</v>
+      </c>
+      <c r="D19" t="n">
+        <v>181.9912131334709</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-31.35548429469441</v>
+      </c>
+      <c r="D20" t="n">
+        <v>180.3761873356731</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>81</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-23.78364639319732</v>
+      </c>
+      <c r="D21" t="n">
+        <v>190.796358781898</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>83</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-32.83064438173392</v>
+      </c>
+      <c r="D22" t="n">
+        <v>184.2264939041864</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>91</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.82661340013209</v>
+      </c>
+      <c r="D23" t="n">
+        <v>199.525294245394</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>95</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-20.35294815406943</v>
+      </c>
+      <c r="D24" t="n">
+        <v>203.3472617502535</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-10.40054505655687</v>
+      </c>
+      <c r="D25" t="n">
+        <v>202.80997045991</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>110</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.465453162240133</v>
+      </c>
+      <c r="D26" t="n">
+        <v>217.7337870975105</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>143</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29.8190776729299</v>
+      </c>
+      <c r="D27" t="n">
+        <v>246.4094416617936</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>146</v>
+      </c>
+      <c r="C28" t="n">
+        <v>38.58709537113348</v>
+      </c>
+      <c r="D28" t="n">
+        <v>254.9361945887452</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>148</v>
+      </c>
+      <c r="C29" t="n">
+        <v>35.14512060714496</v>
+      </c>
+      <c r="D29" t="n">
+        <v>246.2505517786917</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>150</v>
+      </c>
+      <c r="C30" t="n">
+        <v>40.19921216108252</v>
+      </c>
+      <c r="D30" t="n">
+        <v>254.0167398522296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>153</v>
+      </c>
+      <c r="C31" t="n">
+        <v>43.42957511116241</v>
+      </c>
+      <c r="D31" t="n">
+        <v>257.3520172758126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>155</v>
+      </c>
+      <c r="C32" t="n">
+        <v>46.0684089906855</v>
+      </c>
+      <c r="D32" t="n">
+        <v>265.6036048195201</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>160</v>
+      </c>
+      <c r="C33" t="n">
+        <v>65.68859895265648</v>
+      </c>
+      <c r="D33" t="n">
+        <v>267.8163601189343</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>162</v>
+      </c>
+      <c r="C34" t="n">
+        <v>55.70590965792977</v>
+      </c>
+      <c r="D34" t="n">
+        <v>270.6500729267889</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>165</v>
+      </c>
+      <c r="C35" t="n">
+        <v>64.26609839629606</v>
+      </c>
+      <c r="D35" t="n">
+        <v>269.8339920854724</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>167</v>
+      </c>
+      <c r="C36" t="n">
+        <v>66.26628601818443</v>
+      </c>
+      <c r="D36" t="n">
+        <v>270.6660341494683</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>170</v>
+      </c>
+      <c r="C37" t="n">
+        <v>60.41073029072845</v>
+      </c>
+      <c r="D37" t="n">
+        <v>279.4119246150148</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>172</v>
+      </c>
+      <c r="C38" t="n">
+        <v>66.69766540736575</v>
+      </c>
+      <c r="D38" t="n">
+        <v>287.5221214801343</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>174</v>
+      </c>
+      <c r="C39" t="n">
+        <v>67.02973592643522</v>
+      </c>
+      <c r="D39" t="n">
+        <v>284.4969671409735</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>177</v>
+      </c>
+      <c r="C40" t="n">
+        <v>69.26669587781858</v>
+      </c>
+      <c r="D40" t="n">
+        <v>289.0214798361019</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>181</v>
+      </c>
+      <c r="C41" t="n">
+        <v>66.91592910561332</v>
+      </c>
+      <c r="D41" t="n">
+        <v>281.7055490089031</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>189</v>
+      </c>
+      <c r="C42" t="n">
+        <v>73.12387179540681</v>
+      </c>
+      <c r="D42" t="n">
+        <v>295.728833138255</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>201</v>
+      </c>
+      <c r="C43" t="n">
+        <v>90.09225281320452</v>
+      </c>
+      <c r="D43" t="n">
+        <v>310.6273157332001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>205</v>
+      </c>
+      <c r="C44" t="n">
+        <v>99.8866993121629</v>
+      </c>
+      <c r="D44" t="n">
+        <v>324.8057479877801</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>213</v>
+      </c>
+      <c r="C45" t="n">
+        <v>108.2397875255479</v>
+      </c>
+      <c r="D45" t="n">
+        <v>321.8371322134994</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>215</v>
+      </c>
+      <c r="C46" t="n">
+        <v>109.1460020610609</v>
+      </c>
+      <c r="D46" t="n">
+        <v>315.0838746996615</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>217</v>
+      </c>
+      <c r="C47" t="n">
+        <v>100.1913802277943</v>
+      </c>
+      <c r="D47" t="n">
+        <v>323.4590636240389</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>220</v>
+      </c>
+      <c r="C48" t="n">
+        <v>113.986211917436</v>
+      </c>
+      <c r="D48" t="n">
+        <v>333.7001148411035</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>222</v>
+      </c>
+      <c r="C49" t="n">
+        <v>119.866164722228</v>
+      </c>
+      <c r="D49" t="n">
+        <v>324.8991574426324</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>224</v>
+      </c>
+      <c r="C50" t="n">
+        <v>116.8241572503269</v>
+      </c>
+      <c r="D50" t="n">
+        <v>336.0006252035013</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>227</v>
+      </c>
+      <c r="C51" t="n">
+        <v>116.6054707499153</v>
+      </c>
+      <c r="D51" t="n">
+        <v>335.8270929149903</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>229</v>
+      </c>
+      <c r="C52" t="n">
+        <v>120.3519461112967</v>
+      </c>
+      <c r="D52" t="n">
+        <v>341.6708798576693</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>232</v>
+      </c>
+      <c r="C53" t="n">
+        <v>119.3204543759949</v>
+      </c>
+      <c r="D53" t="n">
+        <v>335.5449566735389</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BXMP9QVF_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMP9QVF_po_data.xlsx
@@ -989,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,16 +1008,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1026,12 +1016,6 @@
       <c r="B2" t="n">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
-        <v>-95.07802081835737</v>
-      </c>
-      <c r="D2" t="n">
-        <v>117.0947587444436</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1040,12 +1024,6 @@
       <c r="B3" t="n">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
-        <v>-88.98047780663504</v>
-      </c>
-      <c r="D3" t="n">
-        <v>127.6315255694921</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1054,12 +1032,6 @@
       <c r="B4" t="n">
         <v>21</v>
       </c>
-      <c r="C4" t="n">
-        <v>-87.82409017190683</v>
-      </c>
-      <c r="D4" t="n">
-        <v>123.5826715889963</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1068,12 +1040,6 @@
       <c r="B5" t="n">
         <v>24</v>
       </c>
-      <c r="C5" t="n">
-        <v>-82.03612493993751</v>
-      </c>
-      <c r="D5" t="n">
-        <v>134.3960670876401</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1082,12 +1048,6 @@
       <c r="B6" t="n">
         <v>26</v>
       </c>
-      <c r="C6" t="n">
-        <v>-86.98296034735179</v>
-      </c>
-      <c r="D6" t="n">
-        <v>131.3244269105252</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1096,12 +1056,6 @@
       <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
-        <v>-81.55090875442615</v>
-      </c>
-      <c r="D7" t="n">
-        <v>140.7426962846044</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1110,12 +1064,6 @@
       <c r="B8" t="n">
         <v>31</v>
       </c>
-      <c r="C8" t="n">
-        <v>-82.3836736894545</v>
-      </c>
-      <c r="D8" t="n">
-        <v>138.9917278749052</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1124,12 +1072,6 @@
       <c r="B9" t="n">
         <v>33</v>
       </c>
-      <c r="C9" t="n">
-        <v>-82.38464143826278</v>
-      </c>
-      <c r="D9" t="n">
-        <v>149.1768874825638</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1138,12 +1080,6 @@
       <c r="B10" t="n">
         <v>36</v>
       </c>
-      <c r="C10" t="n">
-        <v>-69.47505518077104</v>
-      </c>
-      <c r="D10" t="n">
-        <v>141.0319952274764</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1152,12 +1088,6 @@
       <c r="B11" t="n">
         <v>38</v>
       </c>
-      <c r="C11" t="n">
-        <v>-69.828265503148</v>
-      </c>
-      <c r="D11" t="n">
-        <v>150.7593137841582</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1166,12 +1096,6 @@
       <c r="B12" t="n">
         <v>40</v>
       </c>
-      <c r="C12" t="n">
-        <v>-60.59016919574522</v>
-      </c>
-      <c r="D12" t="n">
-        <v>153.6536499041881</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1180,12 +1104,6 @@
       <c r="B13" t="n">
         <v>43</v>
       </c>
-      <c r="C13" t="n">
-        <v>-66.17203152836754</v>
-      </c>
-      <c r="D13" t="n">
-        <v>151.0165414220361</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1194,12 +1112,6 @@
       <c r="B14" t="n">
         <v>45</v>
       </c>
-      <c r="C14" t="n">
-        <v>-62.78750726200983</v>
-      </c>
-      <c r="D14" t="n">
-        <v>153.1684991736801</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1208,12 +1120,6 @@
       <c r="B15" t="n">
         <v>50</v>
       </c>
-      <c r="C15" t="n">
-        <v>-55.89125501618859</v>
-      </c>
-      <c r="D15" t="n">
-        <v>159.6156917399529</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1222,12 +1128,6 @@
       <c r="B16" t="n">
         <v>57</v>
       </c>
-      <c r="C16" t="n">
-        <v>-56.39752921077044</v>
-      </c>
-      <c r="D16" t="n">
-        <v>166.3927578933361</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1236,12 +1136,6 @@
       <c r="B17" t="n">
         <v>60</v>
       </c>
-      <c r="C17" t="n">
-        <v>-55.88866293513821</v>
-      </c>
-      <c r="D17" t="n">
-        <v>168.9217736197962</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1250,12 +1144,6 @@
       <c r="B18" t="n">
         <v>62</v>
       </c>
-      <c r="C18" t="n">
-        <v>-46.5053803502475</v>
-      </c>
-      <c r="D18" t="n">
-        <v>180.0712557157354</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1264,12 +1152,6 @@
       <c r="B19" t="n">
         <v>76</v>
       </c>
-      <c r="C19" t="n">
-        <v>-30.41380688615384</v>
-      </c>
-      <c r="D19" t="n">
-        <v>181.9912131334709</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1278,12 +1160,6 @@
       <c r="B20" t="n">
         <v>79</v>
       </c>
-      <c r="C20" t="n">
-        <v>-31.35548429469441</v>
-      </c>
-      <c r="D20" t="n">
-        <v>180.3761873356731</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1292,12 +1168,6 @@
       <c r="B21" t="n">
         <v>81</v>
       </c>
-      <c r="C21" t="n">
-        <v>-23.78364639319732</v>
-      </c>
-      <c r="D21" t="n">
-        <v>190.796358781898</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1306,12 +1176,6 @@
       <c r="B22" t="n">
         <v>83</v>
       </c>
-      <c r="C22" t="n">
-        <v>-32.83064438173392</v>
-      </c>
-      <c r="D22" t="n">
-        <v>184.2264939041864</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1320,12 +1184,6 @@
       <c r="B23" t="n">
         <v>91</v>
       </c>
-      <c r="C23" t="n">
-        <v>-15.82661340013209</v>
-      </c>
-      <c r="D23" t="n">
-        <v>199.525294245394</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1334,12 +1192,6 @@
       <c r="B24" t="n">
         <v>95</v>
       </c>
-      <c r="C24" t="n">
-        <v>-20.35294815406943</v>
-      </c>
-      <c r="D24" t="n">
-        <v>203.3472617502535</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1348,12 +1200,6 @@
       <c r="B25" t="n">
         <v>100</v>
       </c>
-      <c r="C25" t="n">
-        <v>-10.40054505655687</v>
-      </c>
-      <c r="D25" t="n">
-        <v>202.80997045991</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1362,12 +1208,6 @@
       <c r="B26" t="n">
         <v>110</v>
       </c>
-      <c r="C26" t="n">
-        <v>3.465453162240133</v>
-      </c>
-      <c r="D26" t="n">
-        <v>217.7337870975105</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1376,12 +1216,6 @@
       <c r="B27" t="n">
         <v>143</v>
       </c>
-      <c r="C27" t="n">
-        <v>29.8190776729299</v>
-      </c>
-      <c r="D27" t="n">
-        <v>246.4094416617936</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1390,12 +1224,6 @@
       <c r="B28" t="n">
         <v>146</v>
       </c>
-      <c r="C28" t="n">
-        <v>38.58709537113348</v>
-      </c>
-      <c r="D28" t="n">
-        <v>254.9361945887452</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1404,12 +1232,6 @@
       <c r="B29" t="n">
         <v>148</v>
       </c>
-      <c r="C29" t="n">
-        <v>35.14512060714496</v>
-      </c>
-      <c r="D29" t="n">
-        <v>246.2505517786917</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1418,12 +1240,6 @@
       <c r="B30" t="n">
         <v>150</v>
       </c>
-      <c r="C30" t="n">
-        <v>40.19921216108252</v>
-      </c>
-      <c r="D30" t="n">
-        <v>254.0167398522296</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1432,12 +1248,6 @@
       <c r="B31" t="n">
         <v>153</v>
       </c>
-      <c r="C31" t="n">
-        <v>43.42957511116241</v>
-      </c>
-      <c r="D31" t="n">
-        <v>257.3520172758126</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1446,12 +1256,6 @@
       <c r="B32" t="n">
         <v>155</v>
       </c>
-      <c r="C32" t="n">
-        <v>46.0684089906855</v>
-      </c>
-      <c r="D32" t="n">
-        <v>265.6036048195201</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1460,12 +1264,6 @@
       <c r="B33" t="n">
         <v>160</v>
       </c>
-      <c r="C33" t="n">
-        <v>65.68859895265648</v>
-      </c>
-      <c r="D33" t="n">
-        <v>267.8163601189343</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1474,12 +1272,6 @@
       <c r="B34" t="n">
         <v>162</v>
       </c>
-      <c r="C34" t="n">
-        <v>55.70590965792977</v>
-      </c>
-      <c r="D34" t="n">
-        <v>270.6500729267889</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1488,12 +1280,6 @@
       <c r="B35" t="n">
         <v>165</v>
       </c>
-      <c r="C35" t="n">
-        <v>64.26609839629606</v>
-      </c>
-      <c r="D35" t="n">
-        <v>269.8339920854724</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1502,12 +1288,6 @@
       <c r="B36" t="n">
         <v>167</v>
       </c>
-      <c r="C36" t="n">
-        <v>66.26628601818443</v>
-      </c>
-      <c r="D36" t="n">
-        <v>270.6660341494683</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1516,12 +1296,6 @@
       <c r="B37" t="n">
         <v>170</v>
       </c>
-      <c r="C37" t="n">
-        <v>60.41073029072845</v>
-      </c>
-      <c r="D37" t="n">
-        <v>279.4119246150148</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1530,12 +1304,6 @@
       <c r="B38" t="n">
         <v>172</v>
       </c>
-      <c r="C38" t="n">
-        <v>66.69766540736575</v>
-      </c>
-      <c r="D38" t="n">
-        <v>287.5221214801343</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1544,12 +1312,6 @@
       <c r="B39" t="n">
         <v>174</v>
       </c>
-      <c r="C39" t="n">
-        <v>67.02973592643522</v>
-      </c>
-      <c r="D39" t="n">
-        <v>284.4969671409735</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1558,12 +1320,6 @@
       <c r="B40" t="n">
         <v>177</v>
       </c>
-      <c r="C40" t="n">
-        <v>69.26669587781858</v>
-      </c>
-      <c r="D40" t="n">
-        <v>289.0214798361019</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1572,12 +1328,6 @@
       <c r="B41" t="n">
         <v>181</v>
       </c>
-      <c r="C41" t="n">
-        <v>66.91592910561332</v>
-      </c>
-      <c r="D41" t="n">
-        <v>281.7055490089031</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1586,12 +1336,6 @@
       <c r="B42" t="n">
         <v>189</v>
       </c>
-      <c r="C42" t="n">
-        <v>73.12387179540681</v>
-      </c>
-      <c r="D42" t="n">
-        <v>295.728833138255</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1600,12 +1344,6 @@
       <c r="B43" t="n">
         <v>201</v>
       </c>
-      <c r="C43" t="n">
-        <v>90.09225281320452</v>
-      </c>
-      <c r="D43" t="n">
-        <v>310.6273157332001</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1614,12 +1352,6 @@
       <c r="B44" t="n">
         <v>205</v>
       </c>
-      <c r="C44" t="n">
-        <v>99.8866993121629</v>
-      </c>
-      <c r="D44" t="n">
-        <v>324.8057479877801</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1628,12 +1360,6 @@
       <c r="B45" t="n">
         <v>213</v>
       </c>
-      <c r="C45" t="n">
-        <v>108.2397875255479</v>
-      </c>
-      <c r="D45" t="n">
-        <v>321.8371322134994</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1642,12 +1368,6 @@
       <c r="B46" t="n">
         <v>215</v>
       </c>
-      <c r="C46" t="n">
-        <v>109.1460020610609</v>
-      </c>
-      <c r="D46" t="n">
-        <v>315.0838746996615</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1656,12 +1376,6 @@
       <c r="B47" t="n">
         <v>217</v>
       </c>
-      <c r="C47" t="n">
-        <v>100.1913802277943</v>
-      </c>
-      <c r="D47" t="n">
-        <v>323.4590636240389</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1670,12 +1384,6 @@
       <c r="B48" t="n">
         <v>220</v>
       </c>
-      <c r="C48" t="n">
-        <v>113.986211917436</v>
-      </c>
-      <c r="D48" t="n">
-        <v>333.7001148411035</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1684,12 +1392,6 @@
       <c r="B49" t="n">
         <v>222</v>
       </c>
-      <c r="C49" t="n">
-        <v>119.866164722228</v>
-      </c>
-      <c r="D49" t="n">
-        <v>324.8991574426324</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1698,12 +1400,6 @@
       <c r="B50" t="n">
         <v>224</v>
       </c>
-      <c r="C50" t="n">
-        <v>116.8241572503269</v>
-      </c>
-      <c r="D50" t="n">
-        <v>336.0006252035013</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1712,12 +1408,6 @@
       <c r="B51" t="n">
         <v>227</v>
       </c>
-      <c r="C51" t="n">
-        <v>116.6054707499153</v>
-      </c>
-      <c r="D51" t="n">
-        <v>335.8270929149903</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1726,12 +1416,6 @@
       <c r="B52" t="n">
         <v>229</v>
       </c>
-      <c r="C52" t="n">
-        <v>120.3519461112967</v>
-      </c>
-      <c r="D52" t="n">
-        <v>341.6708798576693</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1739,12 +1423,6 @@
       </c>
       <c r="B53" t="n">
         <v>232</v>
-      </c>
-      <c r="C53" t="n">
-        <v>119.3204543759949</v>
-      </c>
-      <c r="D53" t="n">
-        <v>335.5449566735389</v>
       </c>
     </row>
   </sheetData>
